--- a/Statystyki_2018/Template/oopc.xlsx
+++ b/Statystyki_2018/Template/oopc.xlsx
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="59">
-  <si>
-    <t xml:space="preserve">Ruch spraw w miesiącu </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="58">
   <si>
     <t xml:space="preserve">lp</t>
   </si>
@@ -91,7 +88,6 @@
       <rPr>
         <b val="true"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="238"/>
@@ -101,13 +97,22 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="238"/>
       </rPr>
       <t xml:space="preserve">- wszystkie kategorie spraw
-(łącznie z czasem trwania mediacji, zgodnie z dz. 2.1.1. MS-S1r)</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">(łącznie z czasem trwania mediacji, zgodnie z dz. 2.1.1. MS-S1r)</t>
     </r>
   </si>
   <si>
@@ -115,7 +120,6 @@
       <rPr>
         <b val="true"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="238"/>
@@ -126,12 +130,30 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="238"/>
       </rPr>
-      <t xml:space="preserve">(wszystkie kategorie spraw, łącznie z czasem trwania mediacji, zgodnie z MS-S1r)</t>
+      <t xml:space="preserve">(wszystkie kategorie spraw, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">łącznie z czasem trwania mediacji, zgodnie z MS-S1r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
     </r>
   </si>
   <si>
@@ -139,7 +161,6 @@
       <rPr>
         <b val="true"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="238"/>
@@ -151,7 +172,7 @@
         <b val="true"/>
         <u val="single"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="238"/>
@@ -163,7 +184,7 @@
       <rPr>
         <b val="true"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="238"/>
@@ -174,7 +195,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="238"/>
@@ -187,7 +208,6 @@
       <rPr>
         <b val="true"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="238"/>
@@ -199,30 +219,28 @@
         <b val="true"/>
         <u val="single"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="238"/>
       </rPr>
-      <t xml:space="preserve">z urzędu
-</t>
+      <t xml:space="preserve">z urzędu </t>
     </r>
     <r>
       <rPr>
         <b val="true"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="238"/>
       </rPr>
-      <t xml:space="preserve"> przez sędziów i referendarzy sądowych 
-</t>
+      <t xml:space="preserve"> przez sędziów i referendarzy sądowych  </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="238"/>
@@ -392,7 +410,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -453,8 +471,15 @@
       <charset val="238"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
@@ -463,7 +488,15 @@
       <b val="true"/>
       <u val="single"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
@@ -508,18 +541,12 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -586,12 +613,16 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -603,139 +634,107 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="4" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="4" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -753,7 +752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -765,91 +764,92 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="99" min="99" style="0" width="56.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="34.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="98" min="98" style="1" width="25.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="99" min="99" style="1" width="52.7"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="3"/>
-      <c r="AP1" s="3"/>
-      <c r="AQ1" s="3"/>
-      <c r="AR1" s="3"/>
-      <c r="AS1" s="3"/>
-      <c r="AT1" s="3"/>
-      <c r="AU1" s="3"/>
-      <c r="AV1" s="3"/>
-      <c r="AW1" s="3"/>
-      <c r="AX1" s="3"/>
-      <c r="AY1" s="3"/>
-      <c r="AZ1" s="3"/>
-      <c r="BA1" s="3"/>
-      <c r="BB1" s="3"/>
-      <c r="BC1" s="3"/>
-      <c r="BD1" s="3"/>
-      <c r="BE1" s="3"/>
-      <c r="BF1" s="3"/>
-      <c r="BG1" s="3"/>
-      <c r="BH1" s="3"/>
-      <c r="BI1" s="3"/>
-      <c r="BJ1" s="3"/>
-      <c r="BK1" s="3"/>
-      <c r="BL1" s="3"/>
-      <c r="BM1" s="3"/>
-      <c r="BN1" s="3"/>
-      <c r="BO1" s="3"/>
-      <c r="BP1" s="3"/>
-      <c r="BQ1" s="3"/>
-      <c r="BR1" s="3"/>
-      <c r="BS1" s="3"/>
-      <c r="BT1" s="3"/>
-      <c r="BU1" s="3"/>
-      <c r="BV1" s="3"/>
-      <c r="BW1" s="3"/>
-      <c r="BX1" s="3"/>
-      <c r="BY1" s="3"/>
-      <c r="BZ1" s="3"/>
-      <c r="CA1" s="3"/>
-      <c r="CB1" s="3"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BC1" s="4"/>
+      <c r="BD1" s="4"/>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BG1" s="4"/>
+      <c r="BH1" s="4"/>
+      <c r="BI1" s="4"/>
+      <c r="BJ1" s="4"/>
+      <c r="BK1" s="4"/>
+      <c r="BL1" s="4"/>
+      <c r="BM1" s="4"/>
+      <c r="BN1" s="4"/>
+      <c r="BO1" s="4"/>
+      <c r="BP1" s="4"/>
+      <c r="BQ1" s="4"/>
+      <c r="BR1" s="4"/>
+      <c r="BS1" s="4"/>
+      <c r="BT1" s="4"/>
+      <c r="BU1" s="4"/>
+      <c r="BV1" s="4"/>
+      <c r="BW1" s="4"/>
+      <c r="BX1" s="4"/>
+      <c r="BY1" s="4"/>
+      <c r="BZ1" s="4"/>
+      <c r="CA1" s="4"/>
+      <c r="CB1" s="4"/>
       <c r="CC1" s="4"/>
       <c r="CD1" s="4"/>
       <c r="CE1" s="4"/>
@@ -864,20 +864,17 @@
       <c r="CN1" s="4"/>
       <c r="CO1" s="4"/>
       <c r="CP1" s="4"/>
-      <c r="CQ1" s="3"/>
-      <c r="CR1" s="3"/>
-      <c r="CS1" s="3"/>
-      <c r="CT1" s="3"/>
-      <c r="CU1" s="1"/>
-      <c r="CV1" s="1"/>
-      <c r="CW1" s="1"/>
+      <c r="CQ1" s="4"/>
+      <c r="CR1" s="4"/>
+      <c r="CS1" s="4"/>
+      <c r="CT1" s="2"/>
+      <c r="CU1" s="2"/>
+      <c r="CV1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -886,75 +883,75 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="3"/>
-      <c r="AP2" s="3"/>
-      <c r="AQ2" s="3"/>
-      <c r="AR2" s="3"/>
-      <c r="AS2" s="3"/>
-      <c r="AT2" s="3"/>
-      <c r="AU2" s="3"/>
-      <c r="AV2" s="3"/>
-      <c r="AW2" s="3"/>
-      <c r="AX2" s="3"/>
-      <c r="AY2" s="3"/>
-      <c r="AZ2" s="3"/>
-      <c r="BA2" s="3"/>
-      <c r="BB2" s="3"/>
-      <c r="BC2" s="3"/>
-      <c r="BD2" s="3"/>
-      <c r="BE2" s="3"/>
-      <c r="BF2" s="3"/>
-      <c r="BG2" s="3"/>
-      <c r="BH2" s="3"/>
-      <c r="BI2" s="3"/>
-      <c r="BJ2" s="3"/>
-      <c r="BK2" s="3"/>
-      <c r="BL2" s="3"/>
-      <c r="BM2" s="3"/>
-      <c r="BN2" s="3"/>
-      <c r="BO2" s="3"/>
-      <c r="BP2" s="3"/>
-      <c r="BQ2" s="3"/>
-      <c r="BR2" s="3"/>
-      <c r="BS2" s="3"/>
-      <c r="BT2" s="3"/>
-      <c r="BU2" s="3"/>
-      <c r="BV2" s="3"/>
-      <c r="BW2" s="3"/>
-      <c r="BX2" s="3"/>
-      <c r="BY2" s="3"/>
-      <c r="BZ2" s="3"/>
-      <c r="CA2" s="3"/>
-      <c r="CB2" s="3"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="4"/>
+      <c r="AT2" s="4"/>
+      <c r="AU2" s="4"/>
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="4"/>
+      <c r="AX2" s="4"/>
+      <c r="AY2" s="4"/>
+      <c r="AZ2" s="4"/>
+      <c r="BA2" s="4"/>
+      <c r="BB2" s="4"/>
+      <c r="BC2" s="4"/>
+      <c r="BD2" s="4"/>
+      <c r="BE2" s="4"/>
+      <c r="BF2" s="4"/>
+      <c r="BG2" s="4"/>
+      <c r="BH2" s="4"/>
+      <c r="BI2" s="4"/>
+      <c r="BJ2" s="4"/>
+      <c r="BK2" s="4"/>
+      <c r="BL2" s="4"/>
+      <c r="BM2" s="4"/>
+      <c r="BN2" s="4"/>
+      <c r="BO2" s="4"/>
+      <c r="BP2" s="4"/>
+      <c r="BQ2" s="4"/>
+      <c r="BR2" s="4"/>
+      <c r="BS2" s="4"/>
+      <c r="BT2" s="4"/>
+      <c r="BU2" s="4"/>
+      <c r="BV2" s="4"/>
+      <c r="BW2" s="4"/>
+      <c r="BX2" s="4"/>
+      <c r="BY2" s="4"/>
+      <c r="BZ2" s="4"/>
+      <c r="CA2" s="4"/>
+      <c r="CB2" s="4"/>
       <c r="CC2" s="4"/>
       <c r="CD2" s="4"/>
       <c r="CE2" s="4"/>
@@ -969,23 +966,22 @@
       <c r="CN2" s="4"/>
       <c r="CO2" s="4"/>
       <c r="CP2" s="4"/>
-      <c r="CQ2" s="3"/>
-      <c r="CR2" s="3"/>
-      <c r="CS2" s="3"/>
-      <c r="CT2" s="3"/>
-      <c r="CU2" s="1"/>
-      <c r="CV2" s="1"/>
-      <c r="CW2" s="1"/>
+      <c r="CQ2" s="4"/>
+      <c r="CR2" s="4"/>
+      <c r="CS2" s="4"/>
+      <c r="CT2" s="2"/>
+      <c r="CU2" s="2"/>
+      <c r="CV2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>3</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -997,7 +993,7 @@
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
@@ -1017,7 +1013,7 @@
       <c r="AC3" s="7"/>
       <c r="AD3" s="7"/>
       <c r="AE3" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF3" s="7"/>
       <c r="AG3" s="7"/>
@@ -1029,13 +1025,13 @@
       <c r="AM3" s="7"/>
       <c r="AN3" s="7"/>
       <c r="AO3" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP3" s="8"/>
       <c r="AQ3" s="8"/>
       <c r="AR3" s="8"/>
       <c r="AS3" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT3" s="7"/>
       <c r="AU3" s="7"/>
@@ -1046,67 +1042,67 @@
       <c r="AZ3" s="7"/>
       <c r="BA3" s="7"/>
       <c r="BB3" s="7"/>
-      <c r="BC3" s="9" t="s">
+      <c r="BC3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD3" s="7"/>
+      <c r="BE3" s="7"/>
+      <c r="BF3" s="7"/>
+      <c r="BG3" s="7"/>
+      <c r="BH3" s="7"/>
+      <c r="BI3" s="7"/>
+      <c r="BJ3" s="7"/>
+      <c r="BK3" s="7"/>
+      <c r="BL3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="BD3" s="9"/>
-      <c r="BE3" s="9"/>
-      <c r="BF3" s="9"/>
-      <c r="BG3" s="9"/>
-      <c r="BH3" s="9"/>
-      <c r="BI3" s="9"/>
-      <c r="BJ3" s="9"/>
-      <c r="BK3" s="9"/>
-      <c r="BL3" s="9" t="s">
+      <c r="BM3" s="7"/>
+      <c r="BN3" s="7"/>
+      <c r="BO3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BM3" s="9"/>
-      <c r="BN3" s="9"/>
-      <c r="BO3" s="9" t="s">
+      <c r="BP3" s="7"/>
+      <c r="BQ3" s="7"/>
+      <c r="BR3" s="7"/>
+      <c r="BS3" s="7"/>
+      <c r="BT3" s="7"/>
+      <c r="BU3" s="7"/>
+      <c r="BV3" s="7"/>
+      <c r="BW3" s="7"/>
+      <c r="BX3" s="7"/>
+      <c r="BY3" s="7"/>
+      <c r="BZ3" s="7"/>
+      <c r="CA3" s="7"/>
+      <c r="CB3" s="7"/>
+      <c r="CC3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="BP3" s="9"/>
-      <c r="BQ3" s="9"/>
-      <c r="BR3" s="9"/>
-      <c r="BS3" s="9"/>
-      <c r="BT3" s="9"/>
-      <c r="BU3" s="9"/>
-      <c r="BV3" s="9"/>
-      <c r="BW3" s="9"/>
-      <c r="BX3" s="9"/>
-      <c r="BY3" s="9"/>
-      <c r="BZ3" s="9"/>
-      <c r="CA3" s="9"/>
-      <c r="CB3" s="9"/>
-      <c r="CC3" s="10" t="s">
+      <c r="CD3" s="7"/>
+      <c r="CE3" s="7"/>
+      <c r="CF3" s="7"/>
+      <c r="CG3" s="7"/>
+      <c r="CH3" s="7"/>
+      <c r="CI3" s="7"/>
+      <c r="CJ3" s="7"/>
+      <c r="CK3" s="7"/>
+      <c r="CL3" s="7"/>
+      <c r="CM3" s="7"/>
+      <c r="CN3" s="7"/>
+      <c r="CO3" s="7"/>
+      <c r="CP3" s="7"/>
+      <c r="CQ3" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="CD3" s="10"/>
-      <c r="CE3" s="10"/>
-      <c r="CF3" s="10"/>
-      <c r="CG3" s="10"/>
-      <c r="CH3" s="10"/>
-      <c r="CI3" s="10"/>
-      <c r="CJ3" s="10"/>
-      <c r="CK3" s="10"/>
-      <c r="CL3" s="10"/>
-      <c r="CM3" s="10"/>
-      <c r="CN3" s="10"/>
-      <c r="CO3" s="10"/>
-      <c r="CP3" s="10"/>
-      <c r="CQ3" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="CR3" s="7"/>
       <c r="CS3" s="7"/>
       <c r="CT3" s="7"/>
-      <c r="CU3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="CV3" s="12"/>
-      <c r="CW3" s="1"/>
+      <c r="CU3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="CV3" s="10"/>
+      <c r="CW3" s="11"/>
     </row>
-    <row r="4" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1161,584 +1157,583 @@
       <c r="AZ4" s="7"/>
       <c r="BA4" s="7"/>
       <c r="BB4" s="7"/>
-      <c r="BC4" s="9"/>
-      <c r="BD4" s="9"/>
-      <c r="BE4" s="9"/>
-      <c r="BF4" s="9"/>
-      <c r="BG4" s="9"/>
-      <c r="BH4" s="9"/>
-      <c r="BI4" s="9"/>
-      <c r="BJ4" s="9"/>
-      <c r="BK4" s="9"/>
-      <c r="BL4" s="9"/>
-      <c r="BM4" s="9"/>
-      <c r="BN4" s="9"/>
-      <c r="BO4" s="9"/>
-      <c r="BP4" s="9"/>
-      <c r="BQ4" s="9"/>
-      <c r="BR4" s="9"/>
-      <c r="BS4" s="9"/>
-      <c r="BT4" s="9"/>
-      <c r="BU4" s="9"/>
-      <c r="BV4" s="9"/>
-      <c r="BW4" s="9"/>
-      <c r="BX4" s="9"/>
-      <c r="BY4" s="9"/>
-      <c r="BZ4" s="9"/>
-      <c r="CA4" s="9"/>
-      <c r="CB4" s="9"/>
-      <c r="CC4" s="10"/>
-      <c r="CD4" s="10"/>
-      <c r="CE4" s="10"/>
-      <c r="CF4" s="10"/>
-      <c r="CG4" s="10"/>
-      <c r="CH4" s="10"/>
-      <c r="CI4" s="10"/>
-      <c r="CJ4" s="10"/>
-      <c r="CK4" s="10"/>
-      <c r="CL4" s="10"/>
-      <c r="CM4" s="10"/>
-      <c r="CN4" s="10"/>
-      <c r="CO4" s="10"/>
-      <c r="CP4" s="10"/>
+      <c r="BC4" s="7"/>
+      <c r="BD4" s="7"/>
+      <c r="BE4" s="7"/>
+      <c r="BF4" s="7"/>
+      <c r="BG4" s="7"/>
+      <c r="BH4" s="7"/>
+      <c r="BI4" s="7"/>
+      <c r="BJ4" s="7"/>
+      <c r="BK4" s="7"/>
+      <c r="BL4" s="7"/>
+      <c r="BM4" s="7"/>
+      <c r="BN4" s="7"/>
+      <c r="BO4" s="7"/>
+      <c r="BP4" s="7"/>
+      <c r="BQ4" s="7"/>
+      <c r="BR4" s="7"/>
+      <c r="BS4" s="7"/>
+      <c r="BT4" s="7"/>
+      <c r="BU4" s="7"/>
+      <c r="BV4" s="7"/>
+      <c r="BW4" s="7"/>
+      <c r="BX4" s="7"/>
+      <c r="BY4" s="7"/>
+      <c r="BZ4" s="7"/>
+      <c r="CA4" s="7"/>
+      <c r="CB4" s="7"/>
+      <c r="CC4" s="7"/>
+      <c r="CD4" s="7"/>
+      <c r="CE4" s="7"/>
+      <c r="CF4" s="7"/>
+      <c r="CG4" s="7"/>
+      <c r="CH4" s="7"/>
+      <c r="CI4" s="7"/>
+      <c r="CJ4" s="7"/>
+      <c r="CK4" s="7"/>
+      <c r="CL4" s="7"/>
+      <c r="CM4" s="7"/>
+      <c r="CN4" s="7"/>
+      <c r="CO4" s="7"/>
+      <c r="CP4" s="7"/>
       <c r="CQ4" s="7"/>
       <c r="CR4" s="7"/>
       <c r="CS4" s="7"/>
       <c r="CT4" s="7"/>
-      <c r="CU4" s="11"/>
-      <c r="CV4" s="12"/>
-      <c r="CW4" s="1"/>
+      <c r="CU4" s="9"/>
+      <c r="CV4" s="10"/>
+      <c r="CW4" s="11"/>
     </row>
-    <row r="5" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="H5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="I5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="J5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="K5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="L5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="M5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="14"/>
+      <c r="O5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="AP5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ5" s="17"/>
+      <c r="AR5" s="17"/>
+      <c r="AS5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="14" t="s">
+      <c r="AU5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14" t="s">
+      <c r="AV5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14" t="s">
+      <c r="AW5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AX5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14" t="s">
+      <c r="AY5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14" t="s">
+      <c r="AZ5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14" t="s">
+      <c r="BA5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="16" t="s">
+      <c r="BB5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="16" t="s">
+      <c r="BC5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="BD5" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="BE5" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="BF5" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="BG5" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="BH5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="BI5" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="BJ5" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK5" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="BL5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="AD5" s="16"/>
-      <c r="AE5" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG5" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="AH5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="AI5" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ5" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK5" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL5" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM5" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="AN5" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AO5" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="AP5" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="AQ5" s="18"/>
-      <c r="AR5" s="18"/>
-      <c r="AS5" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="AT5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU5" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="AV5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="AW5" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="AX5" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="AY5" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="AZ5" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="BA5" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="BB5" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="BC5" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="BD5" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="BE5" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="BF5" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="BG5" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="BH5" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="BI5" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="BJ5" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="BK5" s="19" t="s">
+      <c r="BM5" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="BL5" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="BM5" s="21" t="s">
+      <c r="BN5" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="BN5" s="21" t="s">
+      <c r="BO5" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="BO5" s="22" t="s">
+      <c r="BP5" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="BP5" s="23" t="s">
+      <c r="BQ5" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="BQ5" s="23" t="s">
+      <c r="BR5" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="BR5" s="24" t="s">
+      <c r="BS5" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="BS5" s="25" t="s">
+      <c r="BT5" s="24"/>
+      <c r="BU5" s="24"/>
+      <c r="BV5" s="24"/>
+      <c r="BW5" s="24"/>
+      <c r="BX5" s="24"/>
+      <c r="BY5" s="24"/>
+      <c r="BZ5" s="24"/>
+      <c r="CA5" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="BT5" s="25"/>
-      <c r="BU5" s="25"/>
-      <c r="BV5" s="25"/>
-      <c r="BW5" s="25"/>
-      <c r="BX5" s="25"/>
-      <c r="BY5" s="25"/>
-      <c r="BZ5" s="25"/>
-      <c r="CA5" s="26" t="s">
+      <c r="CB5" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="CB5" s="26" t="s">
+      <c r="CC5" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD5" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="CE5" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="CF5" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="CG5" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="CH5" s="24"/>
+      <c r="CI5" s="24"/>
+      <c r="CJ5" s="24"/>
+      <c r="CK5" s="24"/>
+      <c r="CL5" s="24"/>
+      <c r="CM5" s="24"/>
+      <c r="CN5" s="24"/>
+      <c r="CO5" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="CP5" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="CQ5" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="CC5" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="CD5" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="CE5" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="CF5" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="CG5" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="CH5" s="30"/>
-      <c r="CI5" s="30"/>
-      <c r="CJ5" s="30"/>
-      <c r="CK5" s="30"/>
-      <c r="CL5" s="30"/>
-      <c r="CM5" s="30"/>
-      <c r="CN5" s="30"/>
-      <c r="CO5" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="CP5" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="CQ5" s="32" t="s">
+      <c r="CR5" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="CR5" s="33" t="s">
+      <c r="CS5" s="27"/>
+      <c r="CT5" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="CS5" s="33"/>
-      <c r="CT5" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="CU5" s="11"/>
-      <c r="CV5" s="12"/>
-      <c r="CW5" s="1"/>
+      <c r="CU5" s="9"/>
+      <c r="CV5" s="10"/>
+      <c r="CW5" s="11"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="34" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="N6" s="34" t="s">
+      <c r="O6" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="P6" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q6" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="R6" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="S6" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="T6" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="U6" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="V6" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="W6" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="X6" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y6" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z6" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA6" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB6" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC6" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD6" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="16"/>
+      <c r="AP6" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="O6" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="P6" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q6" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="R6" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="S6" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="T6" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="U6" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="V6" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="W6" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="X6" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y6" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z6" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA6" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB6" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC6" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD6" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="14"/>
-      <c r="AG6" s="14"/>
-      <c r="AH6" s="14"/>
-      <c r="AI6" s="14"/>
-      <c r="AJ6" s="14"/>
-      <c r="AK6" s="14"/>
-      <c r="AL6" s="14"/>
-      <c r="AM6" s="14"/>
-      <c r="AN6" s="14"/>
-      <c r="AO6" s="17"/>
-      <c r="AP6" s="35" t="s">
+      <c r="AQ6" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="AQ6" s="35" t="s">
+      <c r="AR6" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="AR6" s="35" t="s">
+      <c r="AS6" s="12"/>
+      <c r="AT6" s="13"/>
+      <c r="AU6" s="13"/>
+      <c r="AV6" s="13"/>
+      <c r="AW6" s="13"/>
+      <c r="AX6" s="13"/>
+      <c r="AY6" s="13"/>
+      <c r="AZ6" s="13"/>
+      <c r="BA6" s="13"/>
+      <c r="BB6" s="13"/>
+      <c r="BC6" s="13"/>
+      <c r="BD6" s="18"/>
+      <c r="BE6" s="18"/>
+      <c r="BF6" s="18"/>
+      <c r="BG6" s="18"/>
+      <c r="BH6" s="18"/>
+      <c r="BI6" s="18"/>
+      <c r="BJ6" s="18"/>
+      <c r="BK6" s="18"/>
+      <c r="BL6" s="19"/>
+      <c r="BM6" s="19"/>
+      <c r="BN6" s="19"/>
+      <c r="BO6" s="21"/>
+      <c r="BP6" s="22"/>
+      <c r="BQ6" s="22"/>
+      <c r="BR6" s="23"/>
+      <c r="BS6" s="24"/>
+      <c r="BT6" s="24"/>
+      <c r="BU6" s="24"/>
+      <c r="BV6" s="24"/>
+      <c r="BW6" s="24"/>
+      <c r="BX6" s="24"/>
+      <c r="BY6" s="24"/>
+      <c r="BZ6" s="24"/>
+      <c r="CA6" s="25"/>
+      <c r="CB6" s="25"/>
+      <c r="CC6" s="21"/>
+      <c r="CD6" s="22"/>
+      <c r="CE6" s="22"/>
+      <c r="CF6" s="23"/>
+      <c r="CG6" s="24"/>
+      <c r="CH6" s="24"/>
+      <c r="CI6" s="24"/>
+      <c r="CJ6" s="24"/>
+      <c r="CK6" s="24"/>
+      <c r="CL6" s="24"/>
+      <c r="CM6" s="24"/>
+      <c r="CN6" s="24"/>
+      <c r="CO6" s="25"/>
+      <c r="CP6" s="25"/>
+      <c r="CQ6" s="26"/>
+      <c r="CR6" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="AS6" s="13"/>
-      <c r="AT6" s="14"/>
-      <c r="AU6" s="14"/>
-      <c r="AV6" s="14"/>
-      <c r="AW6" s="14"/>
-      <c r="AX6" s="14"/>
-      <c r="AY6" s="14"/>
-      <c r="AZ6" s="14"/>
-      <c r="BA6" s="14"/>
-      <c r="BB6" s="14"/>
-      <c r="BC6" s="14"/>
-      <c r="BD6" s="19"/>
-      <c r="BE6" s="19"/>
-      <c r="BF6" s="19"/>
-      <c r="BG6" s="19"/>
-      <c r="BH6" s="19"/>
-      <c r="BI6" s="19"/>
-      <c r="BJ6" s="19"/>
-      <c r="BK6" s="19"/>
-      <c r="BL6" s="20"/>
-      <c r="BM6" s="20"/>
-      <c r="BN6" s="20"/>
-      <c r="BO6" s="22"/>
-      <c r="BP6" s="23"/>
-      <c r="BQ6" s="23"/>
-      <c r="BR6" s="24"/>
-      <c r="BS6" s="25"/>
-      <c r="BT6" s="25"/>
-      <c r="BU6" s="25"/>
-      <c r="BV6" s="25"/>
-      <c r="BW6" s="25"/>
-      <c r="BX6" s="25"/>
-      <c r="BY6" s="25"/>
-      <c r="BZ6" s="25"/>
-      <c r="CA6" s="26"/>
-      <c r="CB6" s="26"/>
-      <c r="CC6" s="27"/>
-      <c r="CD6" s="28"/>
-      <c r="CE6" s="28"/>
-      <c r="CF6" s="29"/>
-      <c r="CG6" s="30"/>
-      <c r="CH6" s="30"/>
-      <c r="CI6" s="30"/>
-      <c r="CJ6" s="30"/>
-      <c r="CK6" s="30"/>
-      <c r="CL6" s="30"/>
-      <c r="CM6" s="30"/>
-      <c r="CN6" s="30"/>
-      <c r="CO6" s="31"/>
-      <c r="CP6" s="31"/>
-      <c r="CQ6" s="32"/>
-      <c r="CR6" s="36" t="s">
+      <c r="CS6" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="CS6" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="CT6" s="32"/>
-      <c r="CU6" s="11"/>
-      <c r="CV6" s="12"/>
-      <c r="CW6" s="1"/>
+      <c r="CT6" s="26"/>
+      <c r="CU6" s="9"/>
+      <c r="CV6" s="10"/>
+      <c r="CW6" s="11"/>
     </row>
-    <row r="7" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="136.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="34"/>
-      <c r="Y7" s="34"/>
-      <c r="Z7" s="34"/>
-      <c r="AA7" s="34"/>
-      <c r="AB7" s="34"/>
-      <c r="AC7" s="34"/>
-      <c r="AD7" s="34"/>
-      <c r="AE7" s="13"/>
-      <c r="AF7" s="14"/>
-      <c r="AG7" s="14"/>
-      <c r="AH7" s="14"/>
-      <c r="AI7" s="14"/>
-      <c r="AJ7" s="14"/>
-      <c r="AK7" s="14"/>
-      <c r="AL7" s="14"/>
-      <c r="AM7" s="14"/>
-      <c r="AN7" s="14"/>
-      <c r="AO7" s="17"/>
-      <c r="AP7" s="35"/>
-      <c r="AQ7" s="35"/>
-      <c r="AR7" s="35"/>
-      <c r="AS7" s="13"/>
-      <c r="AT7" s="14"/>
-      <c r="AU7" s="14"/>
-      <c r="AV7" s="14"/>
-      <c r="AW7" s="14"/>
-      <c r="AX7" s="14"/>
-      <c r="AY7" s="14"/>
-      <c r="AZ7" s="14"/>
-      <c r="BA7" s="14"/>
-      <c r="BB7" s="14"/>
-      <c r="BC7" s="14"/>
-      <c r="BD7" s="19"/>
-      <c r="BE7" s="19"/>
-      <c r="BF7" s="19"/>
-      <c r="BG7" s="19"/>
-      <c r="BH7" s="19"/>
-      <c r="BI7" s="19"/>
-      <c r="BJ7" s="19"/>
-      <c r="BK7" s="19"/>
-      <c r="BL7" s="20"/>
-      <c r="BM7" s="20"/>
-      <c r="BN7" s="20"/>
-      <c r="BO7" s="22"/>
-      <c r="BP7" s="23"/>
-      <c r="BQ7" s="23"/>
-      <c r="BR7" s="24"/>
-      <c r="BS7" s="32" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="28"/>
+      <c r="AB7" s="28"/>
+      <c r="AC7" s="28"/>
+      <c r="AD7" s="28"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="13"/>
+      <c r="AI7" s="13"/>
+      <c r="AJ7" s="13"/>
+      <c r="AK7" s="13"/>
+      <c r="AL7" s="13"/>
+      <c r="AM7" s="13"/>
+      <c r="AN7" s="13"/>
+      <c r="AO7" s="16"/>
+      <c r="AP7" s="29"/>
+      <c r="AQ7" s="29"/>
+      <c r="AR7" s="29"/>
+      <c r="AS7" s="12"/>
+      <c r="AT7" s="13"/>
+      <c r="AU7" s="13"/>
+      <c r="AV7" s="13"/>
+      <c r="AW7" s="13"/>
+      <c r="AX7" s="13"/>
+      <c r="AY7" s="13"/>
+      <c r="AZ7" s="13"/>
+      <c r="BA7" s="13"/>
+      <c r="BB7" s="13"/>
+      <c r="BC7" s="13"/>
+      <c r="BD7" s="18"/>
+      <c r="BE7" s="18"/>
+      <c r="BF7" s="18"/>
+      <c r="BG7" s="18"/>
+      <c r="BH7" s="18"/>
+      <c r="BI7" s="18"/>
+      <c r="BJ7" s="18"/>
+      <c r="BK7" s="18"/>
+      <c r="BL7" s="19"/>
+      <c r="BM7" s="19"/>
+      <c r="BN7" s="19"/>
+      <c r="BO7" s="21"/>
+      <c r="BP7" s="22"/>
+      <c r="BQ7" s="22"/>
+      <c r="BR7" s="23"/>
+      <c r="BS7" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="BT7" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="BT7" s="32" t="s">
+      <c r="BU7" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="BU7" s="32" t="s">
+      <c r="BV7" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="BW7" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="BV7" s="32" t="s">
+      <c r="BX7" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="BY7" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="BZ7" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="CA7" s="25"/>
+      <c r="CB7" s="25"/>
+      <c r="CC7" s="21"/>
+      <c r="CD7" s="22"/>
+      <c r="CE7" s="22"/>
+      <c r="CF7" s="23"/>
+      <c r="CG7" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="CH7" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="CI7" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="BW7" s="32" t="s">
+      <c r="CJ7" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="CK7" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="CL7" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="CM7" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="BX7" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="BY7" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="BZ7" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="CA7" s="26"/>
-      <c r="CB7" s="26"/>
-      <c r="CC7" s="27"/>
-      <c r="CD7" s="28"/>
-      <c r="CE7" s="28"/>
-      <c r="CF7" s="29"/>
-      <c r="CG7" s="37" t="s">
+      <c r="CN7" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="CH7" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="CI7" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="CJ7" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="CK7" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="CL7" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="CM7" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="CN7" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="CO7" s="31"/>
-      <c r="CP7" s="31"/>
-      <c r="CQ7" s="32"/>
-      <c r="CR7" s="36"/>
-      <c r="CS7" s="36"/>
-      <c r="CT7" s="32"/>
-      <c r="CU7" s="11"/>
-      <c r="CV7" s="12"/>
-      <c r="CW7" s="1"/>
+      <c r="CO7" s="25"/>
+      <c r="CP7" s="25"/>
+      <c r="CQ7" s="26"/>
+      <c r="CR7" s="30"/>
+      <c r="CS7" s="30"/>
+      <c r="CT7" s="26"/>
+      <c r="CU7" s="9"/>
+      <c r="CV7" s="10"/>
+      <c r="CW7" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
-    <mergeCell ref="C2:L2"/>
+  <mergeCells count="106">
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="C3:L4"/>
